--- a/Test Plan and Result - Part 1.xlsx
+++ b/Test Plan and Result - Part 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Holmesglen - Cert IV Information System - Programming\ICT449 - Use version control system in develpment environments\Assessment\To check\JSAT2\part1\AT2-Part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E282ED7-18D5-4220-A981-85E4A0E5B8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92E835-DE58-4E57-9499-2908A6284BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -61,18 +61,12 @@
     <t>Carlos</t>
   </si>
   <si>
-    <t>index.html open in browser</t>
-  </si>
-  <si>
     <t>Open index.html in firefox (open with Live Server VSC)</t>
   </si>
   <si>
     <t>Validate the code using the website validatejavascript.com</t>
   </si>
   <si>
-    <t>The result displays no errors</t>
-  </si>
-  <si>
     <r>
       <t>Run the function and pass as arguments the array</t>
     </r>
@@ -112,6 +106,57 @@
     </r>
   </si>
   <si>
+    <t>Check if the function “sequentialSearch” finds an existing value.</t>
+  </si>
+  <si>
+    <t>Function “sequentialSearch” functionality  correctly handles a missing value.</t>
+  </si>
+  <si>
+    <t>Check if function “binarySearch” finds an exisiting value in a sorted array.</t>
+  </si>
+  <si>
+    <t>Check if function “binarySearch” correctly handles a missing value in a sorted array.</t>
+  </si>
+  <si>
+    <r>
+      <t>Run the function and pass as arguments the array</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "numbers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and the value target number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>The function returns</t>
     </r>
@@ -123,6 +168,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> the index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is located.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The function returns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is located.</t>
+    </r>
+  </si>
+  <si>
+    <t>index.html open in browser.</t>
+  </si>
+  <si>
+    <t>The result displays no errors.</t>
+  </si>
+  <si>
+    <r>
+      <t>The function returns</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> -1</t>
     </r>
     <r>
@@ -144,6 +281,15 @@
       </rPr>
       <t>not found</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -175,18 +321,14 @@
       </rPr>
       <t>15</t>
     </r>
-  </si>
-  <si>
-    <t>Check if the function “sequentialSearch” finds an existing value.</t>
-  </si>
-  <si>
-    <t>Function “sequentialSearch” functionality  correctly handles a missing value.</t>
-  </si>
-  <si>
-    <t>Check if function “binarySearch” finds an exisiting value in a sorted array.</t>
-  </si>
-  <si>
-    <t>Check if function “binarySearch” correctly handles a missing value in a sorted array.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -216,7 +358,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>23</t>
+      <t>50</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +381,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the index</t>
+      <t xml:space="preserve"> -1</t>
     </r>
     <r>
       <rPr>
@@ -248,7 +390,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> where </t>
+      <t xml:space="preserve"> to indicate the value is </t>
     </r>
     <r>
       <rPr>
@@ -258,90 +400,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is located.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The function returns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> where </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is located.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Run the function and pass as arguments the array</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "numbers"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and the value target number </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
+      <t>not found.</t>
     </r>
   </si>
 </sst>
@@ -674,6 +733,78 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -683,15 +814,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -713,49 +838,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
@@ -774,53 +863,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1106,31 +1165,31 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K8"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="12">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="6"/>
@@ -1146,29 +1205,29 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="22">
+      <c r="E3" s="42"/>
+      <c r="F3" s="44">
         <v>45775</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="5"/>
@@ -1187,84 +1246,100 @@
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="64.05" customHeight="1">
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="48" customHeight="1">
       <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="47" t="s">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="82.2" customHeight="1">
       <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
+      <c r="B8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -1273,22 +1348,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1302,7 +1361,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K9"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
@@ -1311,25 +1370,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="2"/>
@@ -1345,29 +1404,29 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="22">
+      <c r="E3" s="60"/>
+      <c r="F3" s="44">
         <v>45775</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="1"/>
@@ -1383,97 +1442,97 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="41" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="25.8" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="67.05" customHeight="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="52.2" customHeight="1">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="47" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="84" customHeight="1">
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="15.6">
       <c r="A12" s="1"/>
@@ -1530,6 +1589,15 @@
     <row r="48" spans="1:11" ht="37.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -1546,7 +1614,208 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB9A716-8B7D-874D-A8BA-B87A8DBCF69D}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6">
+      <c r="A1" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="11">
+        <v>3</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6">
+      <c r="A3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="44">
+        <v>45775</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.8" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" ht="63" customHeight="1">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="52.05" customHeight="1">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11" ht="81.599999999999994" customHeight="1">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -1563,36 +1832,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB9A716-8B7D-874D-A8BA-B87A8DBCF69D}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B1C0E7-6637-0646-8369-9F5526A8B68C}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="11">
-        <v>3</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="10">
+        <v>4</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="2"/>
@@ -1608,29 +1880,29 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="22">
+      <c r="E3" s="60"/>
+      <c r="F3" s="44">
         <v>45775</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="1"/>
@@ -1646,100 +1918,104 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="41" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.8" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="63" customHeight="1">
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" ht="62.1" customHeight="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="52.05" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="58.05" customHeight="1">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="47" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" ht="81.599999999999994" customHeight="1">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11" ht="85.2" customHeight="1">
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="B9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -1748,211 +2024,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B1C0E7-6637-0646-8369-9F5526A8B68C}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="10">
-        <v>4</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="22">
-        <v>45775</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="62.1" customHeight="1">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="58.05" customHeight="1">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" ht="85.2" customHeight="1">
-      <c r="A9" s="4">
-        <v>3</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -1966,18 +2037,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Test Plan and Result - Part 1.xlsx
+++ b/Test Plan and Result - Part 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Holmesglen - Cert IV Information System - Programming\ICT449 - Use version control system in develpment environments\Assessment\To check\JSAT2\part1\AT2-Part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92E835-DE58-4E57-9499-2908A6284BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284E2D95-98DD-4485-BEF4-B866477D72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -157,6 +157,12 @@
     </r>
   </si>
   <si>
+    <t>index.html open in browser.</t>
+  </si>
+  <si>
+    <t>The result displays no errors.</t>
+  </si>
+  <si>
     <r>
       <t>The function returns</t>
     </r>
@@ -168,6 +174,423 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to indicate the value is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Run the function and pass as arguments the array</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "numbers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and the value target number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Run the function and pass as arguments the array</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "numbers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and the value target number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The function returns</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to indicate the value is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not found.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The output showed "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no errors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <r>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> opened successfully</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Firefox</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS </t>
+  </si>
+  <si>
+    <r>
+      <t>The function returned</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> index =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" (position of the target within the array).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The function returns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is located (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index = 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index.html </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opened successfully</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  in Firefox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The function returned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (value not found)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The function returned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">index = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" (position of the target within the array).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The function returns</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> the index</t>
     </r>
     <r>
@@ -187,220 +610,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is located.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The function returns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> where </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is located.</t>
-    </r>
-  </si>
-  <si>
-    <t>index.html open in browser.</t>
-  </si>
-  <si>
-    <t>The result displays no errors.</t>
-  </si>
-  <si>
-    <r>
-      <t>The function returns</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to indicate the value is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not found</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Run the function and pass as arguments the array</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "numbers"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and the value target number </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Run the function and pass as arguments the array</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "numbers"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and the value target number </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The function returns</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to indicate the value is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not found.</t>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is located (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index = 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
     </r>
   </si>
 </sst>
@@ -411,7 +649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -483,6 +721,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1164,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367A2C3A-C9C9-DF4B-B5EC-132CB9E68C07}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
@@ -1274,13 +1518,17 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
@@ -1293,13 +1541,17 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="30"/>
       <c r="K7" s="31"/>
     </row>
@@ -1312,13 +1564,17 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
     </row>
@@ -1361,7 +1617,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="I9" sqref="I9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
@@ -1486,13 +1742,17 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
@@ -1505,13 +1765,17 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
     </row>
@@ -1520,17 +1784,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="49" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="50"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J9" s="30"/>
       <c r="K9" s="31"/>
     </row>
@@ -1627,7 +1895,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="F9" sqref="F9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
@@ -1749,13 +2017,17 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
@@ -1768,13 +2040,17 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
     </row>
@@ -1787,13 +2063,17 @@
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J9" s="30"/>
       <c r="K9" s="31"/>
     </row>
@@ -1837,7 +2117,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
@@ -1962,13 +2242,17 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
@@ -1981,13 +2265,17 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
     </row>
@@ -1996,17 +2284,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="49" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="50"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J9" s="30"/>
       <c r="K9" s="31"/>
     </row>
